--- a/sampleData/example1.xlsx
+++ b/sampleData/example1.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Din\Documents\GitHub\project22\sampleData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38060EE6-601C-46F3-8E1E-0B11A8FAB078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4455" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>TemplateType=fptcustom</t>
   </si>
@@ -794,20 +789,34 @@
   </si>
   <si>
     <t>offering_start_date</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>whats up my dude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -818,7 +827,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -876,21 +888,11 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -905,91 +907,85 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="10" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="2" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1279,16 +1275,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EI3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:EI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:139" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="11" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1452,7 @@
       <c r="EH1" s="10"/>
       <c r="EI1" s="10"/>
     </row>
-    <row r="2" spans="1:139" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" customHeight="1" ht="27.95" s="11" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="11" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>125</v>
       </c>
@@ -2291,90 +2290,169 @@
         <v>257</v>
       </c>
     </row>
+    <row r="6" spans="1:139">
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:139">
+      <c r="E10" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <dataValidations count="80">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Input an approprate product type." sqref="A3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="String of text with max of 50 characters" sqref="AA3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicates the language used for encoding" sqref="AB3:AF3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 500 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AG3:AK3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please refer to the BTG" sqref="AL3:AO3" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 40 characters maximum in length." sqref="AP3 Y3 U3" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Search terms that describe your product: no repetition, no competitor brand names or ASINs." sqref="AQ3" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="G3 C3 AY3 AR3:AV3" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Text - maximum 20 characters. HTML tags and special characters not on a standard keyboard (eg. ®, ©, ™ or other Type 1 High ASCII characters) are not supported" sqref="AW3" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Black_x000a_White_x000a_Transparent_x000a_Blue_x000a_Green_x000a_Red_x000a_Yellow_x000a_Purple_x000a_Orange_x000a_Pink_x000a_Brown_x000a_Silver_x000a_Gold_x000a_Multi-coloured" sqref="AX3" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="AC, DC, Battery, AC &amp; Battery, Solar, Fuel Cell, Kinetic" sqref="AZ3" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Unique Identifier." sqref="B3" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Ethernet, Wireless, Powerline" sqref="BA3" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Free text with up to 500 characters." sqref="BB3:BF3" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please refer to the Valid values tab for the appropriate value for this field." sqref="BG3" xr:uid="{00000000-0002-0000-0000-000022000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="DE3 CA3 BL3 BH3:BJ3" xr:uid="{00000000-0002-0000-0000-000023000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: GR, KG, OZ, or LB. Do not include the actual weight, which will be collected in the package-weight field." sqref="BK3" xr:uid="{00000000-0002-0000-0000-000026000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: CM, M, IN, or FT. Do not include the actual measurements; these will be collected in the item-length, item-width, and item-height fields." sqref="BM3" xr:uid="{00000000-0002-0000-0000-000028000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: GR, KG, OZ, or LB." sqref="BN3" xr:uid="{00000000-0002-0000-0000-000029000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The general size of an item relative to other similar products.  The size description will help us to group similar products together and offer an avenue to surface the product to customers by its size.  An example of this would be the Small, Medium, a..." sqref="BO3" xr:uid="{00000000-0002-0000-0000-00002A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point." sqref="BT3 BP3:BR3" xr:uid="{00000000-0002-0000-0000-00002B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select from the following valid values: _x000a_IN_x000a_FT_x000a_MM_x000a_CM_x000a_M" sqref="BS3" xr:uid="{00000000-0002-0000-0000-00002E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select from the following valid values: _x000a_OZ_x000a_LB_x000a_GR_x000a_KG" sqref="BU3" xr:uid="{00000000-0002-0000-0000-000030000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="AMAZON_NA, DEFAULT" sqref="BV3" xr:uid="{00000000-0002-0000-0000-000031000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A two letter code that indicates the country where the product originates from." sqref="BW3" xr:uid="{00000000-0002-0000-0000-000032000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Use this field to indicate if a cautionary statement relating to the choking hazards of children's toys and games applies to your product.  These cautionary statements are defined in Section 24 of the Federal Hazardous Substances Act and Section 105 of..." sqref="BX3" xr:uid="{00000000-0002-0000-0000-000033000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 250 characters maximum in length." sqref="BY3" xr:uid="{00000000-0002-0000-0000-000034000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The unit of measure used to describe the weight of the product without shipping material." sqref="BZ3" xr:uid="{00000000-0002-0000-0000-000035000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="List all fabrics, separated by /, and % of each from most to least. Always add &quot;viscose&quot; or &quot;rayon&quot; if listing bamboo, and &quot;azlon&quot; if listing soy. Click “Fabric Type” for an example." sqref="CB3" xr:uid="{00000000-0002-0000-0000-000038000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="If made in US from imported materials select “Made in USA and Imported.” If some units are from US and some imported select “Made in USA or Imported.” If made in US from US materials select “Made in USA.” If made outside the USA, select “Imported.”" sqref="CC3" xr:uid="{00000000-0002-0000-0000-000039000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="What type or composition is the battery?" sqref="CD3" xr:uid="{00000000-0002-0000-0000-00003A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number." sqref="CE3 CV3 CS3:CT3" xr:uid="{00000000-0002-0000-0000-00003B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select from one of the following:               nbatteries_onlynbatteries_contained_in_equipmentnbatteries_packed_with_equipment" sqref="CF3" xr:uid="{00000000-0002-0000-0000-00003C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Any integer greater than or equal to one" sqref="CG3:CI3" xr:uid="{00000000-0002-0000-0000-00003D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please refer to the Valid Values worksheet.  Only use this when PowerSource is 'battery'" sqref="CJ3:CL3" xr:uid="{00000000-0002-0000-0000-000040000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select: true or false" sqref="CM3 DV3 CP3" xr:uid="{00000000-0002-0000-0000-000043000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 1,00 characters maximum in length." sqref="CN3" xr:uid="{00000000-0002-0000-0000-000044000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 500 characters maximum in length." sqref="CO3" xr:uid="{00000000-0002-0000-0000-000045000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Number up to 10 digits and 2 decimal points long." sqref="CQ3" xr:uid="{00000000-0002-0000-0000-000047000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Unit of measure used to describe the battery weight" sqref="CR3" xr:uid="{00000000-0002-0000-0000-000048000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicate unit of measure if Lithium Battery Energy Content is populated" sqref="CU3" xr:uid="{00000000-0002-0000-0000-00004B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select the unit of measure for Lithium Battery Weight  . If Lithium Battery Weight  is used, you must also enter theLithium Battery Weight  Unit Of Measure." sqref="CW3" xr:uid="{00000000-0002-0000-0000-00004D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select the applicable response from the dropdown." sqref="CX3:DB3" xr:uid="{00000000-0002-0000-0000-00004E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Any valid GCID, UPC, or EAN." sqref="D3" xr:uid="{00000000-0002-0000-0000-000051000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Hazmat United Nationals Regulatory ID" sqref="DC3" xr:uid="{00000000-0002-0000-0000-000054000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Holds link to the externally hosted SDS (Safety Data Sheet) for an item" sqref="DD3" xr:uid="{00000000-0002-0000-0000-000055000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicates the volume capacity of a product." sqref="DF3" xr:uid="{00000000-0002-0000-0000-000057000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits allowed to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="DG3" xr:uid="{00000000-0002-0000-0000-000058000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="DH3" xr:uid="{00000000-0002-0000-0000-000059000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Global Harmonized System (GHS) CLP classification system." sqref="DI3:DK3" xr:uid="{00000000-0002-0000-0000-00005A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select the warning type applicable to your product, if any. You certify that the warning provided satisfies legal requirements and that you’ll remove a warning previously provided only if it is no longer legally required." sqref="DL3" xr:uid="{00000000-0002-0000-0000-00005D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="DM3:DQ3" xr:uid="{00000000-0002-0000-0000-00005E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The ship configuration group for an offer. The ship configuration group is created and managed by the seller through the ship setting UI." sqref="DR3" xr:uid="{00000000-0002-0000-0000-000063000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Enter the product tax code supplied to you by Amazon.com." sqref="DS3" xr:uid="{00000000-0002-0000-0000-000064000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A date in this format: yyyy/mm/dd." sqref="DT3" xr:uid="{00000000-0002-0000-0000-000065000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select: True or False" sqref="DU3" xr:uid="{00000000-0002-0000-0000-000066000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Any whole number that is equal to or greater than zero." sqref="DW3" xr:uid="{00000000-0002-0000-0000-000068000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="You can place your listings on sale by entering a sale price (expressed in local currency) along with start and end dates." sqref="DX3" xr:uid="{00000000-0002-0000-0000-000069000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Manufacturer's suggested retail price. This is not the price that Amazon customers will pay for your product." sqref="DY3" xr:uid="{00000000-0002-0000-0000-00006A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The date that the sale price will begin to override the product's standard price; the sale price will be displayed after 0:00AM of Sale From Date." sqref="DZ3" xr:uid="{00000000-0002-0000-0000-00006B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The type of standard, unique identifier entered in the Product ID field. This is a required field if Product ID is provided." sqref="E3" xr:uid="{00000000-0002-0000-0000-00006C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicates the time, in days, between when you receive an order for an item and when you can ship the item.  The default is one to two business days. Use this field if you expect to take longer than two business days." sqref="EA3" xr:uid="{00000000-0002-0000-0000-00006D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Date in this format: yyyy-mm-dd" sqref="EB3" xr:uid="{00000000-0002-0000-0000-00006E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A date in this format: yyyy-mm-dd." sqref="EC3 EH3" xr:uid="{00000000-0002-0000-0000-00006F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Any integer greater than or equal to zero" sqref="ED3" xr:uid="{00000000-0002-0000-0000-000070000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The last date that the sale price will override the item's standard price; the product's standard price will be displayed after 0:00AM of Sale End Date." sqref="EE3" xr:uid="{00000000-0002-0000-0000-000071000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="TRUE, FALSE" sqref="EF3" xr:uid="{00000000-0002-0000-0000-000072000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The maximum quantity of the product that a customer may purchase in one order" sqref="EG3" xr:uid="{00000000-0002-0000-0000-000073000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="This is the date when you can deliver a pre-orderable product (one that has never been available prior to this date) to a customer." sqref="EI3" xr:uid="{00000000-0002-0000-0000-000075000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 100 characters maximum in length. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are not supported." sqref="F3" xr:uid="{00000000-0002-0000-0000-000076000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please refer to the BTG." sqref="H3" xr:uid="{00000000-0002-0000-0000-000078000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The price at which the product is offered for sale, in the local currency." sqref="I3" xr:uid="{00000000-0002-0000-0000-000079000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole number." sqref="J3" xr:uid="{00000000-0002-0000-0000-00007A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Images should have 72-pixels-per-inch resolution and be 500 pixels minimum in length (on the longest side). The preferred file format is JPEG (.jpg), and the URL must be fully-formed and valid (i.e., include http://). When naming your image, you may us..." sqref="K3" xr:uid="{00000000-0002-0000-0000-00007B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="L3:S3" xr:uid="{00000000-0002-0000-0000-00007C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select one of the following values: _x000a__x000a_parent_x000a_child" sqref="T3" xr:uid="{00000000-0002-0000-0000-000084000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: _x000a_Accessory                                                                      Variation" sqref="V3" xr:uid="{00000000-0002-0000-0000-000086000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select and applicable variation theme." sqref="W3" xr:uid="{00000000-0002-0000-0000-000087000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: Update, PartialUpdate, or Delete." sqref="X3" xr:uid="{00000000-0002-0000-0000-000088000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A text string; 2,000 characters maximum in length. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are not supported." sqref="Z3" xr:uid="{00000000-0002-0000-0000-00008A000000}"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <dataValidations count="139">
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Input an approprate product type." sqref="A3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="String of text with max of 50 characters" sqref="AA3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicates the language used for encoding" sqref="AB3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicates the language used for encoding" sqref="AC3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicates the language used for encoding" sqref="AD3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicates the language used for encoding" sqref="AE3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicates the language used for encoding" sqref="AF3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 500 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AG3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 500 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AH3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 500 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AI3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 500 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AJ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 500 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AK3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the BTG" sqref="AL3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the BTG" sqref="AM3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the BTG" sqref="AN3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the BTG" sqref="AO3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 40 characters maximum in length." sqref="AP3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Search terms that describe your product: no repetition, no competitor brand names or ASINs." sqref="AQ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="AR3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="AS3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="AT3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="AU3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="AV3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Text - maximum 20 characters. HTML tags and special characters not on a standard keyboard (eg. ®, ©, ™ or other Type 1 High ASCII characters) are not supported" sqref="AW3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Black_x000a_White_x000a_Transparent_x000a_Blue_x000a_Green_x000a_Red_x000a_Yellow_x000a_Purple_x000a_Orange_x000a_Pink_x000a_Brown_x000a_Silver_x000a_Gold_x000a_Multi-coloured" sqref="AX3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="AY3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="AC, DC, Battery, AC &amp; Battery, Solar, Fuel Cell, Kinetic" sqref="AZ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Unique Identifier." sqref="B3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Ethernet, Wireless, Powerline" sqref="BA3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Free text with up to 500 characters." sqref="BB3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Free text with up to 500 characters." sqref="BC3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Free text with up to 500 characters." sqref="BD3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Free text with up to 500 characters." sqref="BE3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Free text with up to 500 characters." sqref="BF3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the Valid values tab for the appropriate value for this field." sqref="BG3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="BH3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="BI3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="BJ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select one of the following options: GR, KG, OZ, or LB. Do not include the actual weight, which will be collected in the package-weight field." sqref="BK3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="BL3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select one of the following options: CM, M, IN, or FT. Do not include the actual measurements; these will be collected in the item-length, item-width, and item-height fields." sqref="BM3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select one of the following options: GR, KG, OZ, or LB." sqref="BN3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The general size of an item relative to other similar products.  The size description will help us to group similar products together and offer an avenue to surface the product to customers by its size.  An example of this would be the Small, Medium, a..." sqref="BO3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point." sqref="BP3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point." sqref="BQ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point." sqref="BR3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select from the following valid values: _x000a_IN_x000a_FT_x000a_MM_x000a_CM_x000a_M" sqref="BS3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point." sqref="BT3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select from the following valid values: _x000a_OZ_x000a_LB_x000a_GR_x000a_KG" sqref="BU3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="AMAZON_NA, DEFAULT" sqref="BV3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A two letter code that indicates the country where the product originates from." sqref="BW3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Use this field to indicate if a cautionary statement relating to the choking hazards of children's toys and games applies to your product.  These cautionary statements are defined in Section 24 of the Federal Hazardous Substances Act and Section 105 of..." sqref="BX3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 250 characters maximum in length." sqref="BY3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The unit of measure used to describe the weight of the product without shipping material." sqref="BZ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="C3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="CA3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="List all fabrics, separated by /, and % of each from most to least. Always add &quot;viscose&quot; or &quot;rayon&quot; if listing bamboo, and &quot;azlon&quot; if listing soy. Click “Fabric Type” for an example." sqref="CB3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="If made in US from imported materials select “Made in USA and Imported.” If some units are from US and some imported select “Made in USA or Imported.” If made in US from US materials select “Made in USA.” If made outside the USA, select “Imported.”" sqref="CC3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="What type or composition is the battery?" sqref="CD3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A positive whole number." sqref="CE3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select from one of the following:               nbatteries_onlynbatteries_contained_in_equipmentnbatteries_packed_with_equipment" sqref="CF3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Any integer greater than or equal to one" sqref="CG3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Any integer greater than or equal to one" sqref="CH3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Any integer greater than or equal to one" sqref="CI3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the Valid Values worksheet.  Only use this when PowerSource is 'battery'" sqref="CJ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the Valid Values worksheet.  Only use this when PowerSource is 'battery'" sqref="CK3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the Valid Values worksheet.  Only use this when PowerSource is 'battery'" sqref="CL3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select: true or false" sqref="CM3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 1,00 characters maximum in length." sqref="CN3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 500 characters maximum in length." sqref="CO3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select: true or false" sqref="CP3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Number up to 10 digits and 2 decimal points long." sqref="CQ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Unit of measure used to describe the battery weight" sqref="CR3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A positive whole number." sqref="CS3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A positive whole number." sqref="CT3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicate unit of measure if Lithium Battery Energy Content is populated" sqref="CU3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A positive whole number." sqref="CV3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select the unit of measure for Lithium Battery Weight  . If Lithium Battery Weight  is used, you must also enter theLithium Battery Weight  Unit Of Measure." sqref="CW3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please select the applicable response from the dropdown." sqref="CX3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please select the applicable response from the dropdown." sqref="CY3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please select the applicable response from the dropdown." sqref="CZ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Any valid GCID, UPC, or EAN." sqref="D3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please select the applicable response from the dropdown." sqref="DA3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please select the applicable response from the dropdown." sqref="DB3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Hazmat United Nationals Regulatory ID" sqref="DC3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Holds link to the externally hosted SDS (Safety Data Sheet) for an item" sqref="DD3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="DE3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicates the volume capacity of a product." sqref="DF3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A number with up to 10 digits allowed to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="DG3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" sqref="DH3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Global Harmonized System (GHS) CLP classification system." sqref="DI3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Global Harmonized System (GHS) CLP classification system." sqref="DJ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Global Harmonized System (GHS) CLP classification system." sqref="DK3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select the warning type applicable to your product, if any. You certify that the warning provided satisfies legal requirements and that you’ll remove a warning previously provided only if it is no longer legally required." sqref="DL3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="DM3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="DN3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="DO3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="DP3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="DQ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The ship configuration group for an offer. The ship configuration group is created and managed by the seller through the ship setting UI." sqref="DR3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Enter the product tax code supplied to you by Amazon.com." sqref="DS3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A date in this format: yyyy/mm/dd." sqref="DT3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select: True or False" sqref="DU3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select: true or false" sqref="DV3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Any whole number that is equal to or greater than zero." sqref="DW3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="You can place your listings on sale by entering a sale price (expressed in local currency) along with start and end dates." sqref="DX3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Manufacturer's suggested retail price. This is not the price that Amazon customers will pay for your product." sqref="DY3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The date that the sale price will begin to override the product's standard price; the sale price will be displayed after 0:00AM of Sale From Date." sqref="DZ3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The type of standard, unique identifier entered in the Product ID field. This is a required field if Product ID is provided." sqref="E3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Indicates the time, in days, between when you receive an order for an item and when you can ship the item.  The default is one to two business days. Use this field if you expect to take longer than two business days." sqref="EA3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Date in this format: yyyy-mm-dd" sqref="EB3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A date in this format: yyyy-mm-dd." sqref="EC3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Any integer greater than or equal to zero" sqref="ED3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The last date that the sale price will override the item's standard price; the product's standard price will be displayed after 0:00AM of Sale End Date." sqref="EE3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="TRUE, FALSE" sqref="EF3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The maximum quantity of the product that a customer may purchase in one order" sqref="EG3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A date in this format: yyyy-mm-dd." sqref="EH3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="This is the date when you can deliver a pre-orderable product (one that has never been available prior to this date) to a customer." sqref="EI3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 100 characters maximum in length. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are not supported." sqref="F3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="G3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please refer to the BTG." sqref="H3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="The price at which the product is offered for sale, in the local currency." sqref="I3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A whole number." sqref="J3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Images should have 72-pixels-per-inch resolution and be 500 pixels minimum in length (on the longest side). The preferred file format is JPEG (.jpg), and the URL must be fully-formed and valid (i.e., include http://). When naming your image, you may us..." sqref="K3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="L3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="M3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="N3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="O3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="P3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="Q3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="R3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="S3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Please select one of the following values: _x000a__x000a_parent_x000a_child" sqref="T3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 40 characters maximum in length." sqref="U3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select one of the following options: _x000a_Accessory                                                                      Variation" sqref="V3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select and applicable variation theme." sqref="W3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="Select one of the following options: Update, PartialUpdate, or Delete." sqref="X3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="An alphanumeric string; 1 character minimum in length and 40 characters maximum in length." sqref="Y3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" prompt="A text string; 2,000 characters maximum in length. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are not supported." sqref="Z3"/>
   </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/sampleData/example1.xlsx
+++ b/sampleData/example1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>TemplateType=fptcustom</t>
   </si>
@@ -794,7 +794,10 @@
     <t>hi</t>
   </si>
   <si>
-    <t>whats up my dude</t>
+    <t>wao</t>
+  </si>
+  <si>
+    <t>hello world</t>
   </si>
 </sst>
 </file>
@@ -2295,9 +2298,14 @@
         <v>258</v>
       </c>
     </row>
+    <row r="7" spans="1:139">
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+    </row>
     <row r="10" spans="1:139">
       <c r="E10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
